--- a/analysis/ExData/Questionnaire/CutData/All_TLX.xlsx
+++ b/analysis/ExData/Questionnaire/CutData/All_TLX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="17">
   <si>
     <t>participant</t>
   </si>
@@ -22,10 +22,13 @@
     <t>condition</t>
   </si>
   <si>
-    <t>cycle</t>
+    <t>Cycle</t>
   </si>
   <si>
     <t>awwl</t>
+  </si>
+  <si>
+    <t>AWWL</t>
   </si>
   <si>
     <t>Ebina</t>
@@ -55,13 +58,13 @@
     <t>Yamashita</t>
   </si>
   <si>
-    <t>A</t>
+    <t>without feedback</t>
   </si>
   <si>
-    <t>B</t>
+    <t>partner velocity</t>
   </si>
   <si>
-    <t>C</t>
+    <t>robot velocity</t>
   </si>
 </sst>
 </file>
@@ -419,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,1381 +441,1384 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>52.14285714285715</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>54.57142857142857</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>58.14285714285715</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>55.85714285714285</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>53.61904761904762</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>55.04761904761905</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>54.09523809523809</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>53.71428571428572</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>62.52380952380953</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>57.52380952380953</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>56.47619047619047</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>53.61904761904762</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>56.66666666666666</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>59.66666666666666</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>54.14285714285715</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>56.61904761904762</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>58.52380952380953</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>50.61904761904762</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>57.33333333333334</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>51.47619047619047</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>46.90476190476191</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>50.52380952380953</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D25">
         <v>3</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>51.80952380952381</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>57.42857142857143</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>54.23809523809524</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D28">
         <v>3</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>50.71428571428572</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>72.0952380952381</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>71.04761904761905</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D31">
         <v>3</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>68.19047619047619</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D33">
         <v>2</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>85.85714285714286</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D34">
         <v>3</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>85.33333333333333</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>75.28571428571429</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D36">
         <v>2</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>86.66666666666667</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D37">
         <v>3</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>76.19047619047619</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>69.76190476190476</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D39">
         <v>2</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>75.19047619047619</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D40">
         <v>3</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>79.52380952380952</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D42">
         <v>2</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>73.66666666666667</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D43">
         <v>3</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>67.23809523809524</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>60.47619047619047</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D45">
         <v>2</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>64.80952380952381</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D46">
         <v>3</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>67.23809523809524</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>48.52380952380953</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D48">
         <v>2</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>51.42857142857143</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D49">
         <v>3</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>56.76190476190476</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>51.28571428571428</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D51">
         <v>2</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>58.80952380952381</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D52">
         <v>3</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>57.38095238095238</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>57.95238095238095</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C54" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D54">
         <v>2</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>65.61904761904762</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:6">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D55">
         <v>3</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>65.80952380952381</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:6">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>61.47619047619047</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:6">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D57">
         <v>2</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>60.66666666666666</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D58">
         <v>3</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>55.95238095238095</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:6">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>66.95238095238095</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D60">
         <v>2</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>58.09523809523809</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D61">
         <v>3</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>60.66666666666666</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:6">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>58.66666666666666</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:6">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D63">
         <v>2</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>59.71428571428572</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:6">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D64">
         <v>3</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>60.52380952380953</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>69.85714285714286</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D66">
         <v>2</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>71.14285714285714</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:6">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D67">
         <v>3</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>69.47619047619048</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:6">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>48.90476190476191</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:6">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D69">
         <v>2</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>50.28571428571428</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:6">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D70">
         <v>3</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>54.33333333333334</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:6">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>49.76190476190476</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:6">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D72">
         <v>2</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>45.80952380952381</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:6">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D73">
         <v>3</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>47.23809523809524</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:6">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>44.85714285714285</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:6">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D75">
         <v>2</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>58.33333333333334</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:6">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D76">
         <v>3</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>82.76190476190476</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:6">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D77">
         <v>1</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>70.61904761904762</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:6">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D78">
         <v>2</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>66.38095238095238</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:6">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D79">
         <v>3</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>71.33333333333333</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:6">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C80" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D80">
         <v>1</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>77.14285714285714</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:6">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D81">
         <v>2</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>87.76190476190476</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:6">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C82" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D82">
         <v>3</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>77.95238095238095</v>
       </c>
     </row>

--- a/analysis/ExData/Questionnaire/CutData/All_TLX.xlsx
+++ b/analysis/ExData/Questionnaire/CutData/All_TLX.xlsx
@@ -14,21 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="16">
   <si>
-    <t>participant</t>
+    <t>Participant</t>
   </si>
   <si>
-    <t>condition</t>
+    <t>Condition</t>
   </si>
   <si>
     <t>Cycle</t>
   </si>
   <si>
-    <t>awwl</t>
-  </si>
-  <si>
-    <t>AWWL</t>
+    <t>Score</t>
   </si>
   <si>
     <t>Ebina</t>
@@ -422,13 +419,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,1384 +438,1381 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="E2">
         <v>52.14285714285715</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="E3">
         <v>54.57142857142857</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
-      <c r="F4">
+      <c r="E4">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="E5">
         <v>58.14285714285715</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="E6">
         <v>55.85714285714285</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
-      <c r="F7">
+      <c r="E7">
         <v>53.61904761904762</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="F8">
+      <c r="E8">
         <v>55.04761904761905</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="E9">
         <v>54.09523809523809</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
-      <c r="F10">
+      <c r="E10">
         <v>53.71428571428572</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="F11">
+      <c r="E11">
         <v>62.52380952380953</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
-      <c r="F12">
+      <c r="E12">
         <v>57.52380952380953</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
-      <c r="F13">
+      <c r="E13">
         <v>56.47619047619047</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="F14">
+      <c r="E14">
         <v>53.61904761904762</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
-      <c r="F15">
+      <c r="E15">
         <v>56.66666666666666</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
-      <c r="F16">
+      <c r="E16">
         <v>59.66666666666666</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="F17">
+      <c r="E17">
         <v>54.14285714285715</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
-      <c r="F18">
+      <c r="E18">
         <v>56.61904761904762</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
-      <c r="F19">
+      <c r="E19">
         <v>58.52380952380953</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="F20">
+      <c r="E20">
         <v>50.61904761904762</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
-      <c r="F21">
+      <c r="E21">
         <v>57.33333333333334</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
-      <c r="F22">
+      <c r="E22">
         <v>51.47619047619047</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="F23">
+      <c r="E23">
         <v>46.90476190476191</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
-      <c r="F24">
+      <c r="E24">
         <v>50.52380952380953</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D25">
         <v>3</v>
       </c>
-      <c r="F25">
+      <c r="E25">
         <v>51.80952380952381</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="F26">
+      <c r="E26">
         <v>57.42857142857143</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
-      <c r="F27">
+      <c r="E27">
         <v>54.23809523809524</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D28">
         <v>3</v>
       </c>
-      <c r="F28">
+      <c r="E28">
         <v>50.71428571428572</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:5">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="F29">
+      <c r="E29">
         <v>72.0952380952381</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:5">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
-      <c r="F30">
+      <c r="E30">
         <v>71.04761904761905</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:5">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31">
         <v>3</v>
       </c>
-      <c r="F31">
+      <c r="E31">
         <v>68.19047619047619</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:5">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
-      <c r="F32">
+      <c r="E32">
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:5">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D33">
         <v>2</v>
       </c>
-      <c r="F33">
+      <c r="E33">
         <v>85.85714285714286</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:5">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D34">
         <v>3</v>
       </c>
-      <c r="F34">
+      <c r="E34">
         <v>85.33333333333333</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:5">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
-      <c r="F35">
+      <c r="E35">
         <v>75.28571428571429</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:5">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D36">
         <v>2</v>
       </c>
-      <c r="F36">
+      <c r="E36">
         <v>86.66666666666667</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:5">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D37">
         <v>3</v>
       </c>
-      <c r="F37">
+      <c r="E37">
         <v>76.19047619047619</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:5">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
-      <c r="F38">
+      <c r="E38">
         <v>69.76190476190476</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:5">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D39">
         <v>2</v>
       </c>
-      <c r="F39">
+      <c r="E39">
         <v>75.19047619047619</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:5">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D40">
         <v>3</v>
       </c>
-      <c r="F40">
+      <c r="E40">
         <v>79.52380952380952</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:5">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
-      <c r="F41">
+      <c r="E41">
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:5">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D42">
         <v>2</v>
       </c>
-      <c r="F42">
+      <c r="E42">
         <v>73.66666666666667</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:5">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D43">
         <v>3</v>
       </c>
-      <c r="F43">
+      <c r="E43">
         <v>67.23809523809524</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:5">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
-      <c r="F44">
+      <c r="E44">
         <v>60.47619047619047</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:5">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D45">
         <v>2</v>
       </c>
-      <c r="F45">
+      <c r="E45">
         <v>64.80952380952381</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:5">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D46">
         <v>3</v>
       </c>
-      <c r="F46">
+      <c r="E46">
         <v>67.23809523809524</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:5">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
-      <c r="F47">
+      <c r="E47">
         <v>48.52380952380953</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:5">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D48">
         <v>2</v>
       </c>
-      <c r="F48">
+      <c r="E48">
         <v>51.42857142857143</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:5">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D49">
         <v>3</v>
       </c>
-      <c r="F49">
+      <c r="E49">
         <v>56.76190476190476</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:5">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
-      <c r="F50">
+      <c r="E50">
         <v>51.28571428571428</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:5">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D51">
         <v>2</v>
       </c>
-      <c r="F51">
+      <c r="E51">
         <v>58.80952380952381</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:5">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D52">
         <v>3</v>
       </c>
-      <c r="F52">
+      <c r="E52">
         <v>57.38095238095238</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:5">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
-      <c r="F53">
+      <c r="E53">
         <v>57.95238095238095</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:5">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D54">
         <v>2</v>
       </c>
-      <c r="F54">
+      <c r="E54">
         <v>65.61904761904762</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:5">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D55">
         <v>3</v>
       </c>
-      <c r="F55">
+      <c r="E55">
         <v>65.80952380952381</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:5">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
-      <c r="F56">
+      <c r="E56">
         <v>61.47619047619047</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:5">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D57">
         <v>2</v>
       </c>
-      <c r="F57">
+      <c r="E57">
         <v>60.66666666666666</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:5">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D58">
         <v>3</v>
       </c>
-      <c r="F58">
+      <c r="E58">
         <v>55.95238095238095</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:5">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
-      <c r="F59">
+      <c r="E59">
         <v>66.95238095238095</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:5">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D60">
         <v>2</v>
       </c>
-      <c r="F60">
+      <c r="E60">
         <v>58.09523809523809</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:5">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D61">
         <v>3</v>
       </c>
-      <c r="F61">
+      <c r="E61">
         <v>60.66666666666666</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:5">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
-      <c r="F62">
+      <c r="E62">
         <v>58.66666666666666</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:5">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D63">
         <v>2</v>
       </c>
-      <c r="F63">
+      <c r="E63">
         <v>59.71428571428572</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:5">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D64">
         <v>3</v>
       </c>
-      <c r="F64">
+      <c r="E64">
         <v>60.52380952380953</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:5">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
-      <c r="F65">
+      <c r="E65">
         <v>69.85714285714286</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:5">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D66">
         <v>2</v>
       </c>
-      <c r="F66">
+      <c r="E66">
         <v>71.14285714285714</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:5">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D67">
         <v>3</v>
       </c>
-      <c r="F67">
+      <c r="E67">
         <v>69.47619047619048</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:5">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
-      <c r="F68">
+      <c r="E68">
         <v>48.90476190476191</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:5">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D69">
         <v>2</v>
       </c>
-      <c r="F69">
+      <c r="E69">
         <v>50.28571428571428</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:5">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D70">
         <v>3</v>
       </c>
-      <c r="F70">
+      <c r="E70">
         <v>54.33333333333334</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:5">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
-      <c r="F71">
+      <c r="E71">
         <v>49.76190476190476</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:5">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D72">
         <v>2</v>
       </c>
-      <c r="F72">
+      <c r="E72">
         <v>45.80952380952381</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:5">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D73">
         <v>3</v>
       </c>
-      <c r="F73">
+      <c r="E73">
         <v>47.23809523809524</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:5">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
-      <c r="F74">
+      <c r="E74">
         <v>44.85714285714285</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:5">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D75">
         <v>2</v>
       </c>
-      <c r="F75">
+      <c r="E75">
         <v>58.33333333333334</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:5">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D76">
         <v>3</v>
       </c>
-      <c r="F76">
+      <c r="E76">
         <v>82.76190476190476</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:5">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D77">
         <v>1</v>
       </c>
-      <c r="F77">
+      <c r="E77">
         <v>70.61904761904762</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:5">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D78">
         <v>2</v>
       </c>
-      <c r="F78">
+      <c r="E78">
         <v>66.38095238095238</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:5">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D79">
         <v>3</v>
       </c>
-      <c r="F79">
+      <c r="E79">
         <v>71.33333333333333</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:5">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D80">
         <v>1</v>
       </c>
-      <c r="F80">
+      <c r="E80">
         <v>77.14285714285714</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:5">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D81">
         <v>2</v>
       </c>
-      <c r="F81">
+      <c r="E81">
         <v>87.76190476190476</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:5">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D82">
         <v>3</v>
       </c>
-      <c r="F82">
+      <c r="E82">
         <v>77.95238095238095</v>
       </c>
     </row>

--- a/analysis/ExData/Questionnaire/CutData/All_TLX.xlsx
+++ b/analysis/ExData/Questionnaire/CutData/All_TLX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="17">
   <si>
     <t>Participant</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>Kato</t>
+  </si>
+  <si>
+    <t>Kawai</t>
   </si>
   <si>
     <t>Kitamichi</t>
@@ -419,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,7 +450,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -464,7 +467,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -481,7 +484,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -498,7 +501,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -515,7 +518,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -532,7 +535,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -549,7 +552,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -566,7 +569,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -583,7 +586,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -600,7 +603,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -617,7 +620,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -634,7 +637,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -651,7 +654,7 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -668,7 +671,7 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -685,7 +688,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -702,7 +705,7 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -719,7 +722,7 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -736,7 +739,7 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -753,7 +756,7 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -770,7 +773,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -787,7 +790,7 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -804,7 +807,7 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -821,7 +824,7 @@
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -838,7 +841,7 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -855,7 +858,7 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -872,7 +875,7 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -889,7 +892,7 @@
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -906,13 +909,13 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29">
-        <v>72.0952380952381</v>
+        <v>68.52380952380952</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -923,13 +926,13 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
       <c r="E30">
-        <v>71.04761904761905</v>
+        <v>72.33333333333333</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -940,13 +943,13 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D31">
         <v>3</v>
       </c>
       <c r="E31">
-        <v>68.19047619047619</v>
+        <v>63.90476190476191</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -957,13 +960,13 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>78</v>
+        <v>67.0952380952381</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -974,13 +977,13 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D33">
         <v>2</v>
       </c>
       <c r="E33">
-        <v>85.85714285714286</v>
+        <v>56.90476190476191</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -991,13 +994,13 @@
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D34">
         <v>3</v>
       </c>
       <c r="E34">
-        <v>85.33333333333333</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1008,13 +1011,13 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35">
-        <v>75.28571428571429</v>
+        <v>79.66666666666667</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1025,13 +1028,13 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D36">
         <v>2</v>
       </c>
       <c r="E36">
-        <v>86.66666666666667</v>
+        <v>65.95238095238095</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1042,13 +1045,13 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D37">
         <v>3</v>
       </c>
       <c r="E37">
-        <v>76.19047619047619</v>
+        <v>64.42857142857143</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1059,13 +1062,13 @@
         <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38">
-        <v>69.76190476190476</v>
+        <v>72.0952380952381</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1076,13 +1079,13 @@
         <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D39">
         <v>2</v>
       </c>
       <c r="E39">
-        <v>75.19047619047619</v>
+        <v>71.04761904761905</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1093,13 +1096,13 @@
         <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D40">
         <v>3</v>
       </c>
       <c r="E40">
-        <v>79.52380952380952</v>
+        <v>68.19047619047619</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1110,13 +1113,13 @@
         <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1127,13 +1130,13 @@
         <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D42">
         <v>2</v>
       </c>
       <c r="E42">
-        <v>73.66666666666667</v>
+        <v>85.85714285714286</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1144,13 +1147,13 @@
         <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D43">
         <v>3</v>
       </c>
       <c r="E43">
-        <v>67.23809523809524</v>
+        <v>85.33333333333333</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1161,13 +1164,13 @@
         <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44">
-        <v>60.47619047619047</v>
+        <v>75.28571428571429</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1178,13 +1181,13 @@
         <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D45">
         <v>2</v>
       </c>
       <c r="E45">
-        <v>64.80952380952381</v>
+        <v>86.66666666666667</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1195,13 +1198,13 @@
         <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D46">
         <v>3</v>
       </c>
       <c r="E46">
-        <v>67.23809523809524</v>
+        <v>76.19047619047619</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1212,13 +1215,13 @@
         <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47">
-        <v>48.52380952380953</v>
+        <v>69.76190476190476</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1229,13 +1232,13 @@
         <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D48">
         <v>2</v>
       </c>
       <c r="E48">
-        <v>51.42857142857143</v>
+        <v>75.19047619047619</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1246,13 +1249,13 @@
         <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D49">
         <v>3</v>
       </c>
       <c r="E49">
-        <v>56.76190476190476</v>
+        <v>79.52380952380952</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1263,13 +1266,13 @@
         <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50">
-        <v>51.28571428571428</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1280,13 +1283,13 @@
         <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D51">
         <v>2</v>
       </c>
       <c r="E51">
-        <v>58.80952380952381</v>
+        <v>73.66666666666667</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1297,13 +1300,13 @@
         <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D52">
         <v>3</v>
       </c>
       <c r="E52">
-        <v>57.38095238095238</v>
+        <v>67.23809523809524</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1314,13 +1317,13 @@
         <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53">
-        <v>57.95238095238095</v>
+        <v>60.47619047619047</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1331,13 +1334,13 @@
         <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D54">
         <v>2</v>
       </c>
       <c r="E54">
-        <v>65.61904761904762</v>
+        <v>64.80952380952381</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1348,13 +1351,13 @@
         <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D55">
         <v>3</v>
       </c>
       <c r="E55">
-        <v>65.80952380952381</v>
+        <v>67.23809523809524</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1365,13 +1368,13 @@
         <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="E56">
-        <v>61.47619047619047</v>
+        <v>48.52380952380953</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1382,13 +1385,13 @@
         <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D57">
         <v>2</v>
       </c>
       <c r="E57">
-        <v>60.66666666666666</v>
+        <v>51.42857142857143</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1399,13 +1402,13 @@
         <v>10</v>
       </c>
       <c r="C58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D58">
         <v>3</v>
       </c>
       <c r="E58">
-        <v>55.95238095238095</v>
+        <v>56.76190476190476</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1416,13 +1419,13 @@
         <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59">
-        <v>66.95238095238095</v>
+        <v>51.28571428571428</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1433,13 +1436,13 @@
         <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D60">
         <v>2</v>
       </c>
       <c r="E60">
-        <v>58.09523809523809</v>
+        <v>58.80952380952381</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1450,13 +1453,13 @@
         <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D61">
         <v>3</v>
       </c>
       <c r="E61">
-        <v>60.66666666666666</v>
+        <v>57.38095238095238</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1467,13 +1470,13 @@
         <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62">
-        <v>58.66666666666666</v>
+        <v>57.95238095238095</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1484,13 +1487,13 @@
         <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D63">
         <v>2</v>
       </c>
       <c r="E63">
-        <v>59.71428571428572</v>
+        <v>65.61904761904762</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1501,13 +1504,13 @@
         <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D64">
         <v>3</v>
       </c>
       <c r="E64">
-        <v>60.52380952380953</v>
+        <v>65.80952380952381</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1518,13 +1521,13 @@
         <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
       <c r="E65">
-        <v>69.85714285714286</v>
+        <v>61.47619047619047</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1535,13 +1538,13 @@
         <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D66">
         <v>2</v>
       </c>
       <c r="E66">
-        <v>71.14285714285714</v>
+        <v>60.66666666666666</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1552,13 +1555,13 @@
         <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D67">
         <v>3</v>
       </c>
       <c r="E67">
-        <v>69.47619047619048</v>
+        <v>55.95238095238095</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1569,13 +1572,13 @@
         <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
       <c r="E68">
-        <v>48.90476190476191</v>
+        <v>66.95238095238095</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1586,13 +1589,13 @@
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D69">
         <v>2</v>
       </c>
       <c r="E69">
-        <v>50.28571428571428</v>
+        <v>58.09523809523809</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1603,13 +1606,13 @@
         <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D70">
         <v>3</v>
       </c>
       <c r="E70">
-        <v>54.33333333333334</v>
+        <v>60.66666666666666</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1620,13 +1623,13 @@
         <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71">
-        <v>49.76190476190476</v>
+        <v>58.66666666666666</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1637,13 +1640,13 @@
         <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D72">
         <v>2</v>
       </c>
       <c r="E72">
-        <v>45.80952380952381</v>
+        <v>59.71428571428572</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1654,13 +1657,13 @@
         <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D73">
         <v>3</v>
       </c>
       <c r="E73">
-        <v>47.23809523809524</v>
+        <v>60.52380952380953</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1671,13 +1674,13 @@
         <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
       <c r="E74">
-        <v>44.85714285714285</v>
+        <v>69.85714285714286</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1688,13 +1691,13 @@
         <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D75">
         <v>2</v>
       </c>
       <c r="E75">
-        <v>58.33333333333334</v>
+        <v>71.14285714285714</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1705,13 +1708,13 @@
         <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D76">
         <v>3</v>
       </c>
       <c r="E76">
-        <v>82.76190476190476</v>
+        <v>69.47619047619048</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1722,13 +1725,13 @@
         <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D77">
         <v>1</v>
       </c>
       <c r="E77">
-        <v>70.61904761904762</v>
+        <v>48.90476190476191</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1739,13 +1742,13 @@
         <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D78">
         <v>2</v>
       </c>
       <c r="E78">
-        <v>66.38095238095238</v>
+        <v>50.28571428571428</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1756,13 +1759,13 @@
         <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D79">
         <v>3</v>
       </c>
       <c r="E79">
-        <v>71.33333333333333</v>
+        <v>54.33333333333334</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1773,13 +1776,13 @@
         <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D80">
         <v>1</v>
       </c>
       <c r="E80">
-        <v>77.14285714285714</v>
+        <v>49.76190476190476</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1790,13 +1793,13 @@
         <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D81">
         <v>2</v>
       </c>
       <c r="E81">
-        <v>87.76190476190476</v>
+        <v>45.80952380952381</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1807,12 +1810,165 @@
         <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D82">
         <v>3</v>
       </c>
       <c r="E82">
+        <v>47.23809523809524</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>44.85714285714285</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84">
+        <v>58.33333333333334</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+      <c r="E85">
+        <v>82.76190476190476</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>70.61904761904762</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <v>66.38095238095238</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88">
+        <v>3</v>
+      </c>
+      <c r="E88">
+        <v>71.33333333333333</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>77.14285714285714</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90">
+        <v>87.76190476190476</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+      <c r="E91">
         <v>77.95238095238095</v>
       </c>
     </row>
